--- a/Running projects/BAF Head Office/Running Bill No 2 - H.V.A.C Maintenance Scope.xlsx
+++ b/Running projects/BAF Head Office/Running Bill No 2 - H.V.A.C Maintenance Scope.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281FDAB5-D8CA-4C13-B0BC-416A976EA537}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897398F4-861F-432D-98DB-A65B52C45DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">AHUs!$A$1:$K$170</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Plant Room'!$A$1:$K$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">AHUs!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Plant Room'!$1:$3</definedName>
   </definedNames>
@@ -984,6 +984,23 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1004,23 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1045,16 +1045,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>192088</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>982663</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1078,8 +1078,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7693025" y="463550"/>
-          <a:ext cx="944563" cy="730249"/>
+          <a:off x="215900" y="63500"/>
+          <a:ext cx="1185863" cy="908050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1097,16 +1097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202426</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1002526</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>184147</xdr:rowOff>
+      <xdr:rowOff>31747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104112</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>835025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142212</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1123,8 +1123,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8647926" y="565147"/>
-          <a:ext cx="4483874" cy="681965"/>
+          <a:off x="1421626" y="412747"/>
+          <a:ext cx="4528324" cy="681965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,13 +1202,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1514,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A11:H46"/>
+  <dimension ref="A11:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,378 +1857,370 @@
       <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="E13" s="27"/>
+      <c r="A13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="29">
+        <v>45811</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="E14" s="27"/>
+      <c r="A14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="29">
-        <v>45768</v>
-      </c>
+      <c r="A15" s="32"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="32"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B19" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D19" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E19" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
-        <v>1</v>
-      </c>
-      <c r="B22" s="43" t="s">
+    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>1</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C20" s="46">
         <f>AHUs!J28</f>
         <v>1463000</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D20" s="46">
         <f>AHUs!K28</f>
         <v>438000</v>
       </c>
+      <c r="E20" s="46">
+        <f>D20+C20</f>
+        <v>1901000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
+        <v>3</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="46">
+        <f>AHUs!J52</f>
+        <v>1463000</v>
+      </c>
+      <c r="D21" s="46">
+        <f>AHUs!K52</f>
+        <v>438000</v>
+      </c>
+      <c r="E21" s="46">
+        <f>D21+C21</f>
+        <v>1901000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <v>2</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="46">
+        <f>AHUs!J76</f>
+        <v>1205000</v>
+      </c>
+      <c r="D22" s="46">
+        <f>AHUs!K76</f>
+        <v>388000</v>
+      </c>
       <c r="E22" s="46">
         <f>D22+C22</f>
-        <v>1901000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1593000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="46">
-        <f>AHUs!J52</f>
-        <v>1463000</v>
+        <f>AHUs!J100</f>
+        <v>1205000</v>
       </c>
       <c r="D23" s="46">
-        <f>AHUs!K52</f>
-        <v>438000</v>
+        <f>AHUs!K100</f>
+        <v>388000</v>
       </c>
       <c r="E23" s="46">
         <f>D23+C23</f>
-        <v>1901000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1593000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="46">
-        <f>AHUs!J76</f>
-        <v>1205000</v>
-      </c>
-      <c r="D24" s="46">
-        <f>AHUs!K76</f>
-        <v>388000</v>
-      </c>
-      <c r="E24" s="46">
-        <f>D24+C24</f>
-        <v>1593000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
-        <v>4</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="46">
-        <f>AHUs!J100</f>
-        <v>1205000</v>
+        <f>AHUs!J146</f>
+        <v>417000</v>
       </c>
       <c r="D25" s="46">
-        <f>AHUs!K100</f>
-        <v>388000</v>
+        <f>AHUs!K146</f>
+        <v>90000</v>
       </c>
       <c r="E25" s="46">
         <f>D25+C25</f>
-        <v>1593000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>507000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-    </row>
-    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
-        <v>6</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="46">
-        <f>AHUs!J146</f>
-        <v>417000</v>
-      </c>
-      <c r="D27" s="46">
-        <f>AHUs!K146</f>
-        <v>90000</v>
-      </c>
-      <c r="E27" s="46">
-        <f>D27+C27</f>
-        <v>507000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
-        <v>7</v>
-      </c>
-      <c r="B28" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C26" s="46">
         <f>AHUs!J160</f>
         <v>475000</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D26" s="46">
         <f>AHUs!K160</f>
         <v>175000</v>
       </c>
-      <c r="E28" s="46">
-        <f t="shared" ref="E28:E30" si="0">D28+C28</f>
+      <c r="E26" s="46">
+        <f t="shared" ref="E26:E28" si="0">D26+C26</f>
         <v>650000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+    <row r="27" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
         <v>8</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B27" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C27" s="46">
         <f>AHUs!J170</f>
         <v>155000</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D27" s="46">
         <f>AHUs!K170</f>
         <v>75000</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E27" s="46">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+    <row r="28" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36">
         <v>9</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B28" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C28" s="37">
         <f>'Plant Room'!J15</f>
         <v>9440000</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D28" s="37">
         <f>'Plant Room'!K15</f>
         <v>470000</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E28" s="37">
         <f t="shared" si="0"/>
         <v>9910000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="38">
+        <f>SUM(C20:C28)</f>
+        <v>15823000</v>
+      </c>
+      <c r="D29" s="38">
+        <f>SUM(D20:D28)</f>
+        <v>2462000</v>
+      </c>
+      <c r="E29" s="38">
+        <f>SUM(E20:E28)</f>
+        <v>18285000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38">
+        <f>D29*15%</f>
+        <v>369300</v>
+      </c>
+      <c r="E30" s="38">
+        <f>D30</f>
+        <v>369300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
-      <c r="B31" s="81" t="s">
-        <v>118</v>
+      <c r="B31" s="74" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="38">
-        <f>SUM(C22:C30)</f>
+        <f>C30+C29</f>
         <v>15823000</v>
       </c>
       <c r="D31" s="38">
-        <f>SUM(D22:D30)</f>
-        <v>2462000</v>
+        <f>D30+D29</f>
+        <v>2831300</v>
       </c>
       <c r="E31" s="38">
-        <f>SUM(E22:E30)</f>
-        <v>18285000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f>E30+E29</f>
+        <v>18654300</v>
+      </c>
+      <c r="G31" s="63"/>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
-      <c r="B32" s="81" t="s">
-        <v>117</v>
+      <c r="B32" s="74" t="s">
+        <v>125</v>
       </c>
       <c r="C32" s="38"/>
-      <c r="D32" s="38">
-        <f>D31*15%</f>
-        <v>369300</v>
-      </c>
+      <c r="D32" s="38"/>
       <c r="E32" s="38">
-        <f>D32</f>
-        <v>369300</v>
-      </c>
+        <v>9327165</v>
+      </c>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
-      <c r="B33" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="38">
-        <f>C32+C31</f>
-        <v>15823000</v>
-      </c>
-      <c r="D33" s="38">
-        <f>D32+D31</f>
-        <v>2831300</v>
-      </c>
+      <c r="B33" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="38">
-        <f>E32+E31</f>
-        <v>18654300</v>
+        <f>E31-E32</f>
+        <v>9327135</v>
       </c>
       <c r="G33" s="63"/>
     </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38">
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H34" s="73">
         <v>9327165</v>
       </c>
-      <c r="G34" s="63"/>
-    </row>
-    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38">
-        <f>E33-E34</f>
-        <v>9327135</v>
-      </c>
-      <c r="G35" s="63"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H36" s="80">
-        <v>9327165</v>
-      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="68">
+        <f>C29*5.5%</f>
+        <v>870265</v>
+      </c>
+      <c r="D36" s="72">
+        <f>D31*11%</f>
+        <v>311443</v>
+      </c>
+      <c r="H36" s="69"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="72">
+        <f>C29*5/118</f>
+        <v>670466.10169491521</v>
+      </c>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="75">
-        <f>C31*5.5%</f>
-        <v>870265</v>
-      </c>
-      <c r="D38" s="79">
-        <f>D33*11%</f>
-        <v>311443</v>
-      </c>
-      <c r="H38" s="76"/>
+        <v>123</v>
+      </c>
+      <c r="D38" s="70">
+        <f>D30*20%</f>
+        <v>73860</v>
+      </c>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="79">
-        <f>C31*5/118</f>
-        <v>670466.10169491521</v>
-      </c>
-      <c r="H39" s="76"/>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="77">
-        <f>D32*20%</f>
-        <v>73860</v>
-      </c>
-      <c r="H40" s="76"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="76"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71">
+        <f>E31-C36-D36-C37-D38</f>
+        <v>16728265.898305085</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="78"/>
-      <c r="D42" s="78">
-        <f>E33-C38-D38-C39-D40</f>
-        <v>16728265.898305085</v>
-      </c>
+      <c r="D42" s="71"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="78"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="78"/>
-      <c r="E46"/>
+      <c r="D44" s="71"/>
+      <c r="E44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2244,8 +2236,8 @@
   </sheetPr>
   <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169:K169"/>
+    <sheetView topLeftCell="A38" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2268,36 +2260,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="72" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3169,14 +3161,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
       <c r="I28" s="65"/>
@@ -4011,14 +4003,14 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="71"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
       <c r="G52" s="62"/>
       <c r="H52" s="62"/>
       <c r="I52" s="65"/>
@@ -4853,14 +4845,14 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="78"/>
       <c r="G76" s="62"/>
       <c r="H76" s="62"/>
       <c r="I76" s="65"/>
@@ -5685,14 +5677,14 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="69" t="s">
+      <c r="A100" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B100" s="70"/>
-      <c r="C100" s="70"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="71"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="78"/>
       <c r="G100" s="62"/>
       <c r="H100" s="62"/>
       <c r="I100" s="65"/>
@@ -6699,14 +6691,14 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="69" t="s">
+      <c r="A136" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B136" s="70"/>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="71"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="78"/>
       <c r="G136" s="62"/>
       <c r="H136" s="62"/>
       <c r="I136" s="65"/>
@@ -6987,14 +6979,14 @@
       </c>
     </row>
     <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A146" s="69" t="s">
+      <c r="A146" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="70"/>
-      <c r="F146" s="71"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="78"/>
       <c r="G146" s="62"/>
       <c r="H146" s="62"/>
       <c r="I146" s="65"/>
@@ -7429,14 +7421,14 @@
       </c>
     </row>
     <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A160" s="69" t="s">
+      <c r="A160" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B160" s="70"/>
-      <c r="C160" s="70"/>
-      <c r="D160" s="70"/>
-      <c r="E160" s="70"/>
-      <c r="F160" s="71"/>
+      <c r="B160" s="77"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="78"/>
       <c r="G160" s="62"/>
       <c r="H160" s="62"/>
       <c r="I160" s="65"/>
@@ -7715,14 +7707,14 @@
       </c>
     </row>
     <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A170" s="69" t="s">
+      <c r="A170" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="70"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
-      <c r="F170" s="71"/>
+      <c r="B170" s="77"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="77"/>
+      <c r="E170" s="77"/>
+      <c r="F170" s="78"/>
       <c r="G170" s="62"/>
       <c r="H170" s="62"/>
       <c r="I170" s="61"/>
@@ -7775,8 +7767,8 @@
   </sheetPr>
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7795,36 +7787,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="72" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -8215,14 +8207,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="62"/>
       <c r="H15" s="62"/>
       <c r="I15" s="61"/>
@@ -8728,14 +8720,14 @@
       </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="71"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
       <c r="I40" s="61"/>
